--- a/code/content/TOPIC_XLSX/요일_4.xlsx
+++ b/code/content/TOPIC_XLSX/요일_4.xlsx
@@ -390,26 +390,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>205</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>165</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -417,7 +417,7 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>146</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -425,7 +425,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>143</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -441,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
